--- a/biology/Botanique/Thomas_Jonathan_Burrill/Thomas_Jonathan_Burrill.xlsx
+++ b/biology/Botanique/Thomas_Jonathan_Burrill/Thomas_Jonathan_Burrill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Jonathan Burrill (né le 25 avril 1839, mort le 14 avril 1916) est un botaniste américain qui fut le premier à découvrir la cause bactérienne de maladies des plantes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Jonathan Burrill (né le 25 avril 1839, mort le 14 avril 1916) est un botaniste américain qui fut le premier à découvrir la cause bactérienne de maladies des plantes.
 On lui doit l'identification de la bactérie Erwinia amylovora (qu'il appela Micrococcus amylovorus) comme agent pathogène responsable du feu bactérien du poirier.
-Né à Pittsfield (Massachusetts), il fut diplômé de l'université d'État de l'Illinois en 1865[2].
-En 1868, il fut élu professeur de botanique et d'horticulture à l'université de l'Illinois à Urbana-Champaign et y fit toute sa carrière, qu'il termina comme vice-président en 1882[3].
+Né à Pittsfield (Massachusetts), il fut diplômé de l'université d'État de l'Illinois en 1865.
+En 1868, il fut élu professeur de botanique et d'horticulture à l'université de l'Illinois à Urbana-Champaign et y fit toute sa carrière, qu'il termina comme vice-président en 1882.
 </t>
         </is>
       </c>
